--- a/OREI_files/10-herd data/Sample summary BARLOW LAB_ OREI UVM _ December 2020.xlsx
+++ b/OREI_files/10-herd data/Sample summary BARLOW LAB_ OREI UVM _ December 2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caitl\OneDrive\Documents\OREI\10-herd data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c792ef73e4c0296d/Documents/OREI files and Git repo/OREI_Git/OREI_files/10-herd data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3516AA-25EE-4E07-8941-BC849F2918FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{3E3516AA-25EE-4E07-8941-BC849F2918FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7E09EAA-EBC3-44B8-8C1A-06A95A046F2E}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D70EE72B-5D32-4913-9A7B-4E2E939C405A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{D70EE72B-5D32-4913-9A7B-4E2E939C405A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -502,8 +502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1A06B67-F73B-4E29-A4D6-C1A54B58DEBD}">
   <dimension ref="A1:AN12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="82" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -674,7 +674,7 @@
     <row r="7" spans="1:40" x14ac:dyDescent="0.35">
       <c r="B7" s="6"/>
     </row>
-    <row r="8" spans="1:40" ht="110" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:40" ht="131.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="6"/>
       <c r="D8" s="9" t="s">
         <v>22</v>
